--- a/Tool/Luban/DataTables/Datas/Test.xlsx
+++ b/Tool/Luban/DataTables/Datas/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Proteostasis-Crisis\Tool\Luban\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483906A0-C959-4E77-908A-145C60B584A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA3C7C-DD5D-4CDC-8E55-6937B4976AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
